--- a/STS IR Bot Performer/Data/Templates.xlsx
+++ b/STS IR Bot Performer/Data/Templates.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DA7FCAD6-EE74-4659-85EB-4064910C7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F57609-9B2B-4320-A884-A24EF2BE7C8D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DA7FCAD6-EE74-4659-85EB-4064910C7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA6C01-AE09-47DB-B311-5E0DD33753CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReviewSheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Review Sheet" sheetId="6" r:id="rId1"/>
     <sheet name="OutputBot" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -953,15 +953,9 @@
     <tableColumn id="2" xr3:uid="{D6F90D1C-A720-403E-BBFE-6CC7A284B618}" name="Legal Entity"/>
     <tableColumn id="3" xr3:uid="{3223C91C-DDD2-45D0-A731-B539767C016A}" name="Reason(s) Denied" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{EDEB16A5-7282-4A7C-8303-6EB1E75A30E4}" name="Fixed?" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{7E143E1F-6DF6-4D51-954E-179850263F1F}" name="Prepared by" dataDxfId="10">
-      <calculatedColumnFormula>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{C6C898CC-581E-4893-95D6-6EFA5942C248}" name="Reviewer" dataDxfId="9">
-      <calculatedColumnFormula>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{002390BC-CB77-45F2-BA1B-EC60AA886252}" name="ClientID" dataDxfId="8">
-      <calculatedColumnFormula>$M$1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7E143E1F-6DF6-4D51-954E-179850263F1F}" name="Prepared by" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C6C898CC-581E-4893-95D6-6EFA5942C248}" name="Reviewer" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{002390BC-CB77-45F2-BA1B-EC60AA886252}" name="ClientID" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1277,7 +1271,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,9 +1284,9 @@
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="42.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,15 +1311,15 @@
       </c>
       <c r="M1" t="str">
         <f ca="1">LEFT($N$1,LEN($N$1)-5)</f>
-        <v xml:space="preserve"> List</v>
+        <v>ENCOMSTS</v>
       </c>
       <c r="N1" t="str">
         <f ca="1">RIGHT($O$1,LEN($O$1)-16)</f>
-        <v xml:space="preserve"> List.xlsx</v>
+        <v>ENCOMSTS.xlsx</v>
       </c>
       <c r="O1" t="str" cm="1">
         <f t="array" aca="1" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Other Deductions List.xlsx</v>
+        <v>STS_REVIEWSHEET_ENCOMSTS.xlsx</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1416,18 +1410,9 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="28" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="20" t="str">
-        <f ca="1">$M$1</f>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1449,36 +1434,18 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L8" s="28" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="20" t="str">
-        <f ca="1">$M$1</f>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G9" s="10"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="21" t="str">
-        <f t="shared" ref="M9:M28" ca="1" si="1">$M$1</f>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1488,18 +1455,9 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1513,18 +1471,9 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -1541,18 +1490,9 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1562,18 +1502,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1587,18 +1518,9 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1612,36 +1534,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1652,18 +1556,9 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1673,18 +1568,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1697,18 +1583,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1721,18 +1598,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1745,18 +1613,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1769,18 +1628,9 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1793,18 +1643,9 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1817,18 +1658,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L24" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1841,18 +1673,9 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1865,18 +1688,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1889,18 +1703,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1913,18 +1718,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve"> List</v>
-      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">

--- a/STS IR Bot Performer/Data/Templates.xlsx
+++ b/STS IR Bot Performer/Data/Templates.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.martinez\Documents\githubProject-IRBot\STS_InternalReviewBot\STS IR Bot Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799ABC47-BB08-4D0E-B9E2-7DFB60CD10AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DA7FCAD6-EE74-4659-85EB-4064910C7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA6C01-AE09-47DB-B311-5E0DD33753CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReviewSheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Review Sheet" sheetId="6" r:id="rId1"/>
     <sheet name="OutputBot" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,204 +58,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>File(s) Name</t>
   </si>
   <si>
+    <t>DMT File</t>
+  </si>
+  <si>
     <t>Client File</t>
   </si>
   <si>
-    <t>DMT File</t>
-  </si>
-  <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V1</t>
+  </si>
+  <si>
+    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V2</t>
+  </si>
+  <si>
+    <t>Total Received Data Report</t>
+  </si>
+  <si>
+    <t>Difference of Imported data from RDR and DMT Files</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Copy and Paste TAXFILED REPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Data Imported </t>
+  </si>
+  <si>
+    <t>Less Put On Hold</t>
+  </si>
+  <si>
+    <t>Less Waiting For Periodic Filing</t>
+  </si>
+  <si>
+    <t>Less Total Unprocessed Data</t>
+  </si>
+  <si>
+    <t>Total Base For Filing - This Month's Data</t>
+  </si>
+  <si>
+    <t>Plus Tax Imported Prior Periods - Released from Hold</t>
+  </si>
+  <si>
+    <t>Plus Tax Imported Prior Periods - Placed on Periodic Filing</t>
+  </si>
+  <si>
+    <t>Less Prior Payments Made</t>
+  </si>
+  <si>
+    <t>Plus WA REV-40 2406</t>
+  </si>
+  <si>
+    <t>Plus Allocations</t>
+  </si>
+  <si>
+    <t>Less All Discounts</t>
+  </si>
+  <si>
+    <t>Plus Penalties</t>
+  </si>
+  <si>
+    <t>Plus Interests</t>
+  </si>
+  <si>
+    <t>Plus Adjustments</t>
+  </si>
+  <si>
+    <t>Total Due Sovos</t>
+  </si>
+  <si>
+    <t>PP 1</t>
+  </si>
+  <si>
+    <t>PP 2</t>
+  </si>
+  <si>
+    <t>PP 3</t>
+  </si>
+  <si>
+    <t>Total Debit Notice</t>
+  </si>
+  <si>
     <t>Prepared By:</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>Approved By:</t>
+  </si>
+  <si>
+    <t>Denied By:</t>
+  </si>
+  <si>
+    <t>Total TS</t>
+  </si>
+  <si>
+    <t>Prior Prepayments per Tax Filed Report</t>
+  </si>
+  <si>
+    <t>Prior Prepayments per Prepayent Tracker</t>
+  </si>
+  <si>
+    <t>Difference of Taxfiled and TS Return List</t>
+  </si>
+  <si>
+    <t>Form Name</t>
+  </si>
+  <si>
+    <t>Legal Entity</t>
+  </si>
+  <si>
+    <t>Reason(s) Denied</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Note 3</t>
+  </si>
+  <si>
+    <t>Note 4</t>
+  </si>
+  <si>
+    <t>Client Specific Notes for Reviewers</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
   </si>
   <si>
     <t>ClientID</t>
   </si>
   <si>
-    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V1</t>
-  </si>
-  <si>
-    <t>Approved By:</t>
-  </si>
-  <si>
-    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V2</t>
-  </si>
-  <si>
-    <t>Denied By:</t>
+    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V3</t>
+  </si>
+  <si>
+    <t>TS Return List Total</t>
+  </si>
+  <si>
+    <t>Fixed?</t>
+  </si>
+  <si>
+    <t>Returns Failed / Reasons Denied</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Method of Calculation</t>
+  </si>
+  <si>
+    <t>Send to AP</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
   </si>
   <si>
     <t>This was reviewed by UiPath bot</t>
-  </si>
-  <si>
-    <t>P.EXAMPLESTS.SU.RETURNS.TWETWEAC.202201.V3</t>
-  </si>
-  <si>
-    <t>Returns Failed / Reasons Denied</t>
-  </si>
-  <si>
-    <t>Form Name</t>
-  </si>
-  <si>
-    <t>Legal Entity</t>
-  </si>
-  <si>
-    <t>Reason(s) denied</t>
-  </si>
-  <si>
-    <t>Fixed?</t>
-  </si>
-  <si>
-    <t>Prepared by</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>AR TPT-2</t>
-  </si>
-  <si>
-    <t>BASKIN</t>
-  </si>
-  <si>
-    <t>the record that it was finding in the TFR file with the entered values. (AZ, AZ TPT-2, AZ). is not equal to zero in the column Credit Held</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>AZ TPT-2</t>
-  </si>
-  <si>
-    <t>Total Received Data Report</t>
-  </si>
-  <si>
-    <t>Difference of Imported data from RDR and DMT Files</t>
-  </si>
-  <si>
-    <t>Send to AP</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Method of Calculation</t>
-  </si>
-  <si>
-    <t>Prepayments</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Detached</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Copy and Paste TAXFILED REPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Data Imported </t>
-  </si>
-  <si>
-    <t>Less Put On Hold</t>
-  </si>
-  <si>
-    <t>Less Waiting For Periodic Filing</t>
-  </si>
-  <si>
-    <t>Less Total Unprocessed Data</t>
-  </si>
-  <si>
-    <t>Total Base For Filing - This Month's Data</t>
-  </si>
-  <si>
-    <t>Plus Tax Imported Prior Periods - Released from Hold</t>
-  </si>
-  <si>
-    <t>Plus Tax Imported Prior Periods - Placed on Periodic Filing</t>
-  </si>
-  <si>
-    <t>Less Prior Payments Made</t>
-  </si>
-  <si>
-    <t>Plus WA REV-40 2406</t>
-  </si>
-  <si>
-    <t>Plus Allocations</t>
-  </si>
-  <si>
-    <t>Less All Discounts</t>
-  </si>
-  <si>
-    <t>Plus Penalties</t>
-  </si>
-  <si>
-    <t>Plus Interests</t>
-  </si>
-  <si>
-    <t>Plus Adjustments</t>
-  </si>
-  <si>
-    <t>Total Due Sovos</t>
-  </si>
-  <si>
-    <t>PP 1</t>
-  </si>
-  <si>
-    <t>PP 2</t>
-  </si>
-  <si>
-    <t>PP 3</t>
-  </si>
-  <si>
-    <t>Total Debit Notice</t>
-  </si>
-  <si>
-    <t>TS Return List Total</t>
-  </si>
-  <si>
-    <t>Total TS</t>
-  </si>
-  <si>
-    <t>Difference of Taxfiled and TS Return List</t>
-  </si>
-  <si>
-    <t>Prior Prepayments per Tax Filed Report</t>
-  </si>
-  <si>
-    <t>Prior Prepayments per Prepayent Tracker</t>
-  </si>
-  <si>
-    <t>Client Specific Notes for Reviewers</t>
-  </si>
-  <si>
-    <t>Note 1</t>
-  </si>
-  <si>
-    <t>Note 2</t>
-  </si>
-  <si>
-    <t>Note 3</t>
-  </si>
-  <si>
-    <t>Note 4</t>
   </si>
 </sst>
 </file>
@@ -264,10 +242,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +280,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -580,111 +571,360 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="4" borderId="6" xfId="17" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Comma 2" xfId="14" xr:uid="{8EB8F4C4-53CC-45F9-8C7F-E2C4B2C1C719}"/>
+  <cellStyles count="20">
+    <cellStyle name="Comma 2" xfId="15" xr:uid="{8EB8F4C4-53CC-45F9-8C7F-E2C4B2C1C719}"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Input" xfId="17" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{8192FBF7-0C3B-4BCD-B0C9-7E6B4328B8C3}"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{9DAC4F3E-2DE2-448D-9903-572CD08BC0A1}"/>
-    <cellStyle name="Normal 12" xfId="11" xr:uid="{E9DA8E0A-CFC7-42F6-85CD-BADC48D069D8}"/>
-    <cellStyle name="Normal 13" xfId="12" xr:uid="{3EA1C1AB-0523-427F-A1FA-A21C5AEC90B8}"/>
-    <cellStyle name="Normal 14" xfId="13" xr:uid="{15380C7F-7D81-4AF8-8382-25BBCE4A245D}"/>
-    <cellStyle name="Normal 15" xfId="15" xr:uid="{6AA85E04-AF4F-4753-BFF3-14C2E667D4EF}"/>
-    <cellStyle name="Normal 16" xfId="16" xr:uid="{B58C97B0-0022-4F3E-89E0-601C11DB9B50}"/>
-    <cellStyle name="Normal 17" xfId="17" xr:uid="{08AE2210-E105-4D2F-81E7-BF5803B34BCF}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DA5E28CF-3FD4-4516-BD9A-E2BF070E1F30}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{DD40D806-4F9F-40B5-BA70-1C9FB3195AF9}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{F0A7FD83-F402-49C7-9DB1-48925A85C851}"/>
-    <cellStyle name="Normal 5" xfId="5" xr:uid="{631EBB1B-3438-4422-80DB-5302CE9FE57B}"/>
-    <cellStyle name="Normal 6" xfId="6" xr:uid="{E1DF05A0-9090-4E02-B8D5-8BA74037CBFA}"/>
-    <cellStyle name="Normal 7" xfId="7" xr:uid="{0D4CA381-BEA2-45D3-AD4E-F2333DEC3E61}"/>
-    <cellStyle name="Normal 8" xfId="8" xr:uid="{835EBCFF-2768-41CF-888B-2473CDD4530A}"/>
-    <cellStyle name="Normal 9" xfId="9" xr:uid="{750CA61D-A280-43E3-B01F-ED582FB932F3}"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{8192FBF7-0C3B-4BCD-B0C9-7E6B4328B8C3}"/>
+    <cellStyle name="Normal 11" xfId="11" xr:uid="{9DAC4F3E-2DE2-448D-9903-572CD08BC0A1}"/>
+    <cellStyle name="Normal 12" xfId="12" xr:uid="{E9DA8E0A-CFC7-42F6-85CD-BADC48D069D8}"/>
+    <cellStyle name="Normal 13" xfId="13" xr:uid="{3EA1C1AB-0523-427F-A1FA-A21C5AEC90B8}"/>
+    <cellStyle name="Normal 14" xfId="14" xr:uid="{15380C7F-7D81-4AF8-8382-25BBCE4A245D}"/>
+    <cellStyle name="Normal 15" xfId="16" xr:uid="{6AA85E04-AF4F-4753-BFF3-14C2E667D4EF}"/>
+    <cellStyle name="Normal 16" xfId="18" xr:uid="{B58C97B0-0022-4F3E-89E0-601C11DB9B50}"/>
+    <cellStyle name="Normal 17" xfId="19" xr:uid="{08AE2210-E105-4D2F-81E7-BF5803B34BCF}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{DA5E28CF-3FD4-4516-BD9A-E2BF070E1F30}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{DD40D806-4F9F-40B5-BA70-1C9FB3195AF9}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{F0A7FD83-F402-49C7-9DB1-48925A85C851}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{631EBB1B-3438-4422-80DB-5302CE9FE57B}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{E1DF05A0-9090-4E02-B8D5-8BA74037CBFA}"/>
+    <cellStyle name="Normal 7" xfId="8" xr:uid="{0D4CA381-BEA2-45D3-AD4E-F2333DEC3E61}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{835EBCFF-2768-41CF-888B-2473CDD4530A}"/>
+    <cellStyle name="Normal 9" xfId="10" xr:uid="{750CA61D-A280-43E3-B01F-ED582FB932F3}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,30 +946,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4913" displayName="Table4913" ref="G1:H3" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5ACA771C-90EC-4F2B-B28C-D78007014F7B}" name="IR_Notes812" displayName="IR_Notes812" ref="G6:M28" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="G6:M28" xr:uid="{C27EAFEF-969E-42F9-A8A5-9E4C44851BE6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4D40B519-36DA-4462-969B-656BD37BE15B}" name="Form Name"/>
+    <tableColumn id="2" xr3:uid="{D6F90D1C-A720-403E-BBFE-6CC7A284B618}" name="Legal Entity"/>
+    <tableColumn id="3" xr3:uid="{3223C91C-DDD2-45D0-A731-B539767C016A}" name="Reason(s) Denied" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{EDEB16A5-7282-4A7C-8303-6EB1E75A30E4}" name="Fixed?" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{7E143E1F-6DF6-4D51-954E-179850263F1F}" name="Prepared by" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C6C898CC-581E-4893-95D6-6EFA5942C248}" name="Reviewer" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{002390BC-CB77-45F2-BA1B-EC60AA886252}" name="ClientID" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="IR_Notes812" displayName="IR_Notes812" ref="G6:O28" totalsRowShown="0">
-  <autoFilter ref="G6:O28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Form Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Legal Entity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Reason(s) denied"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Fixed?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Prepared by"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Reviewer"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Client ID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{96F993CA-2A11-4521-A68A-A5B6E75681BC}" name="Table4913" displayName="Table4913" ref="G1:H3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B0EB90FF-8AE8-45BE-BD6E-6FE599FAD82D}" name="Column1" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{060858A4-93FB-4E49-809E-82B773308801}" name="Column2" headerRowDxfId="2" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1033,16 +1271,15 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" customWidth="1"/>
@@ -1052,723 +1289,583 @@
     <col min="14" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="18"/>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="e">
+        <v>49</v>
+      </c>
+      <c r="M1" t="str">
         <f ca="1">LEFT($N$1,LEN($N$1)-5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N1" t="e">
+        <v>ENCOMSTS</v>
+      </c>
+      <c r="N1" t="str">
         <f ca="1">RIGHT($O$1,LEN($O$1)-16)</f>
-        <v>#VALUE!</v>
+        <v>ENCOMSTS.xlsx</v>
       </c>
       <c r="O1" t="str" cm="1">
-        <f t="array" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Templates.xlsx</v>
+        <f t="array" aca="1" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
+        <v>STS_REVIEWSHEET_ENCOMSTS.xlsx</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="25">
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="25">
+        <f>B3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="25"/>
+      <c r="G4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="25">
+        <f t="shared" ref="D5" si="0">B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="G6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23">
-        <f>B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23"/>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23">
-        <f>B5-C5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="25"/>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="25"/>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="B8" s="23">
         <f>SUM(B2:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <f>SUM(C2:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="24">
         <f>B8-C8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="11"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="23">
         <f>B10-C8</f>
         <v>0</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="27">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$1&lt;&gt;"",LOWER($H$1),"Error, no preparer name"),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f>IF(IR_Notes812[[#This Row],[Form Name]]&lt;&gt;"",IF($H$2&lt;&gt;"",UPPER(LEFT($H$2,3)),"Error, not approved"),"")</f>
-        <v/>
-      </c>
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="25">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="25">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="25">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="25">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="A34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="26">
+      <c r="B44" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="28">
+      <c r="A45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="28">
+      <c r="A46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="28">
+      <c r="A47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="29">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="26">
         <f>SUM(B44:B47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="30">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="9">
         <f>B48-VLOOKUP("Total Debit Notice",A18:B42,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="23">
+        <v>33</v>
+      </c>
+      <c r="B51" s="27">
         <f>VLOOKUP("Less Prior Payments Made",A18:B42,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="25">
+        <v>34</v>
+      </c>
+      <c r="B52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1776,40 +1873,40 @@
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="25">
         <f>B51-B52</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>61</v>
+      <c r="A55" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/STS IR Bot Performer/Data/Templates.xlsx
+++ b/STS IR Bot Performer/Data/Templates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DA7FCAD6-EE74-4659-85EB-4064910C7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA6C01-AE09-47DB-B311-5E0DD33753CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
+    <workbookView xWindow="4710" yWindow="4335" windowWidth="21600" windowHeight="11265" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
   </bookViews>
   <sheets>
     <sheet name="Review Sheet" sheetId="6" r:id="rId1"/>
@@ -1311,15 +1311,15 @@
       </c>
       <c r="M1" t="str">
         <f ca="1">LEFT($N$1,LEN($N$1)-5)</f>
-        <v>ENCOMSTS</v>
+        <v>UGSTS</v>
       </c>
       <c r="N1" t="str">
         <f ca="1">RIGHT($O$1,LEN($O$1)-16)</f>
-        <v>ENCOMSTS.xlsx</v>
+        <v>UGSTS.xlsx</v>
       </c>
       <c r="O1" t="str" cm="1">
         <f t="array" aca="1" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>STS_REVIEWSHEET_ENCOMSTS.xlsx</v>
+        <v>STS_REVIEWSHEET_UGSTS.xlsx</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">

--- a/STS IR Bot Performer/Data/Templates.xlsx
+++ b/STS IR Bot Performer/Data/Templates.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DA7FCAD6-EE74-4659-85EB-4064910C7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA6C01-AE09-47DB-B311-5E0DD33753CE}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4335" windowWidth="21600" windowHeight="11265" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{79ED84D2-0426-4296-ADA0-1DD9912A7493}"/>
   </bookViews>
   <sheets>
     <sheet name="Review Sheet" sheetId="6" r:id="rId1"/>
@@ -1311,15 +1311,15 @@
       </c>
       <c r="M1" t="str">
         <f ca="1">LEFT($N$1,LEN($N$1)-5)</f>
-        <v>UGSTS</v>
+        <v>NEVROSTS</v>
       </c>
       <c r="N1" t="str">
         <f ca="1">RIGHT($O$1,LEN($O$1)-16)</f>
-        <v>UGSTS.xlsx</v>
+        <v>NEVROSTS.xlsx</v>
       </c>
       <c r="O1" t="str" cm="1">
         <f t="array" aca="1" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>STS_REVIEWSHEET_UGSTS.xlsx</v>
+        <v>STS_REVIEWSHEET_NEVROSTS.xlsx</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
